--- a/medicine/Psychotrope/Kilien_Stengel/Kilien_Stengel.xlsx
+++ b/medicine/Psychotrope/Kilien_Stengel/Kilien_Stengel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kilien Stengel, né le 21 mars 1972 à Nevers, est un auteur gastronomique[1], Doctor philosophiæ (PhD), chercheur en sciences de la communication spécialiste de l'alimentation, ancien restaurateur et organisateur d’évènements. Après une carrière dans la restauration, il est enseignant à l'université de Tours, au sein de l'Institut européen d'histoire et des cultures de l'alimentation, .
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kilien Stengel, né le 21 mars 1972 à Nevers, est un auteur gastronomique, Doctor philosophiæ (PhD), chercheur en sciences de la communication spécialiste de l'alimentation, ancien restaurateur et organisateur d’évènements. Après une carrière dans la restauration, il est enseignant à l'université de Tours, au sein de l'Institut européen d'histoire et des cultures de l'alimentation, .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Clamecy en Bourgogne, il vit en Touraine. Son aïeul tenait l'auberge Florent Stengel à Strasbourg, puis le Gasthaus[2], voisin des Brasseries Kronenbourg, tandis que son grand-oncle était propriétaire d'une chaîne d'épiceries fines, et ses grand-père et père organisaient des banquets philanthropiques et des distributions de colis alimentaires à la Gigouillette. À l'aide d'un CAP[3], il fit carrière en qualité de sommelier et maître d'hôtel en Relais &amp; Châteaux étoilés Michelin. D'abord apprenti chez Marc Meneau à Vézelay en 1988, où il fut serveur particulier de Serge Gainsbourg[4], il travailla à l'auberge des Templiers, chez Christophe Cussac à Tonnerre, chez Jacques Lameloise à Chagny, au Gidleigh Park (en), à l'hôtel George-V et à l'hôtel Nikko. Il participa au lancement des produits alimentaires pour spationautes BALEME-Cuisine de l'extrême, en 1989, avec Patrick Baudry[5]). En 1996, il devient hôtelier-restaurateur (enseigne Ferme de France[6]), avant de devenir auditeur qualité (Groupe Flo, groupes Frères Blanc, Louis Le Duff, Fouquet's, Lucien Barrière, Compass Group, label "Restaurateurs de France" du ministère du Tourisme) et jury au Concours général agricole. Il crée 5 ateliers d'initiation à la dégustation du vin en Ile-de-France, et devient professeur de sommellerie, gastronomie et restauration à Marseille (CFA Corot), Versailles (IRMP-AVVEJ), Évry (Chambre de métiers), Meudon, Paris (Synhorcat, École hôtelière de Paris Jean Drouant, et lycée Belliard) puis à Blois. Il fut chargé de mission à l'inspection d'apprentissage de l'Académie de Paris, jury de table au concours Meilleur ouvrier de France et jury au concours de Professeur de lycée professionnel du Ministère de l'Éducation nationale. À partir de 2009, il collabore à l'inscription du Repas gastronomique des Français[7] au patrimoine de l'humanité. De 2005 à 2010, il fut administrateur de l'office du tourisme du Val de Luynes et membre de la commission de restauration scolaire. En 2008, il est affecté à l'Université de Tours[8], chargé de mission scientifique[9] pour l'IEHCA, responsable des Rencontres François Rabelais[10],[11] et de l'unique formation universitaire sur le patrimoine fromager[12]. En 2010, il devient le commissaire général du salon du livre Festin d'auteurs, et membre du comité de pilotage du Mondial du fromage et des produits laitiers[13],[14] et du Vinopôle Val de Loire[15]. Il fut expert au Haut Conseil de l'évaluation de la recherche et de l'enseignement supérieur. Depuis 2018, il est membre de la Délégation générale à la langue française et aux langues de France du Ministère de la Culture. Il est docteur en Sciences de l’information et de la communication de l’Université de Bourgogne et qualifié Maître de conférences, et est membre des équipes de recherche Sensoriel, Sensible, Symbolique à Dijon, et Pratiques et ressources de l'information et des médiations à Tours. Ses travaux traitent des représentations et de l'empirisme du sujet gastronomique[16],[17] comme de l'imaginaire et du relativisme de la qualité alimentaire. Depuis 2023, il est responsable de l'université ouverte des sciences gastronomiques au sein de la Villa Rabelais - Maison des cultures gastronomiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Clamecy en Bourgogne, il vit en Touraine. Son aïeul tenait l'auberge Florent Stengel à Strasbourg, puis le Gasthaus, voisin des Brasseries Kronenbourg, tandis que son grand-oncle était propriétaire d'une chaîne d'épiceries fines, et ses grand-père et père organisaient des banquets philanthropiques et des distributions de colis alimentaires à la Gigouillette. À l'aide d'un CAP, il fit carrière en qualité de sommelier et maître d'hôtel en Relais &amp; Châteaux étoilés Michelin. D'abord apprenti chez Marc Meneau à Vézelay en 1988, où il fut serveur particulier de Serge Gainsbourg, il travailla à l'auberge des Templiers, chez Christophe Cussac à Tonnerre, chez Jacques Lameloise à Chagny, au Gidleigh Park (en), à l'hôtel George-V et à l'hôtel Nikko. Il participa au lancement des produits alimentaires pour spationautes BALEME-Cuisine de l'extrême, en 1989, avec Patrick Baudry). En 1996, il devient hôtelier-restaurateur (enseigne Ferme de France), avant de devenir auditeur qualité (Groupe Flo, groupes Frères Blanc, Louis Le Duff, Fouquet's, Lucien Barrière, Compass Group, label "Restaurateurs de France" du ministère du Tourisme) et jury au Concours général agricole. Il crée 5 ateliers d'initiation à la dégustation du vin en Ile-de-France, et devient professeur de sommellerie, gastronomie et restauration à Marseille (CFA Corot), Versailles (IRMP-AVVEJ), Évry (Chambre de métiers), Meudon, Paris (Synhorcat, École hôtelière de Paris Jean Drouant, et lycée Belliard) puis à Blois. Il fut chargé de mission à l'inspection d'apprentissage de l'Académie de Paris, jury de table au concours Meilleur ouvrier de France et jury au concours de Professeur de lycée professionnel du Ministère de l'Éducation nationale. À partir de 2009, il collabore à l'inscription du Repas gastronomique des Français au patrimoine de l'humanité. De 2005 à 2010, il fut administrateur de l'office du tourisme du Val de Luynes et membre de la commission de restauration scolaire. En 2008, il est affecté à l'Université de Tours, chargé de mission scientifique pour l'IEHCA, responsable des Rencontres François Rabelais, et de l'unique formation universitaire sur le patrimoine fromager. En 2010, il devient le commissaire général du salon du livre Festin d'auteurs, et membre du comité de pilotage du Mondial du fromage et des produits laitiers, et du Vinopôle Val de Loire. Il fut expert au Haut Conseil de l'évaluation de la recherche et de l'enseignement supérieur. Depuis 2018, il est membre de la Délégation générale à la langue française et aux langues de France du Ministère de la Culture. Il est docteur en Sciences de l’information et de la communication de l’Université de Bourgogne et qualifié Maître de conférences, et est membre des équipes de recherche Sensoriel, Sensible, Symbolique à Dijon, et Pratiques et ressources de l'information et des médiations à Tours. Ses travaux traitent des représentations et de l'empirisme du sujet gastronomique, comme de l'imaginaire et du relativisme de la qualité alimentaire. Depuis 2023, il est responsable de l'université ouverte des sciences gastronomiques au sein de la Villa Rabelais - Maison des cultures gastronomiques.
 </t>
         </is>
       </c>
@@ -544,19 +558,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature
-2024 : Chemins de tables, Ramsay (maison d'édition)  (ISBN 978-2-81220-509-5)
-Essais
-2008 : La Gastronomie du produit à l'assiette, Éditions Alan Sutton  (ISBN 978-2-84910-731-7) [18]
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2024 : Chemins de tables, Ramsay (maison d'édition)  (ISBN 978-2-81220-509-5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2008 : La Gastronomie du produit à l'assiette, Éditions Alan Sutton  (ISBN 978-2-84910-731-7) 
 2009 : Alimentation Bio - Manger et boire bio, Éditions Eyrolles  (ISBN 2212542518)
-2010 : Gastronomie, petite philosophie du plaisir et du goût, collection Réflexions (im)pertinentes, Éditions Bréal  (ISBN 978-2-749-50994-5) (Épuisé)[19]
-2010 : Clamecy – Événements fêtes et vie quotidienne, collection Mémoire en images", Éditions Alan Sutton  (ISBN 9782813802484) [20].
-2011 : Gastronomie-Gastrosophie-Gastronomisme, Éditions l'Harmattan, collection Questions contemporaines  (ISBN 978-2-296-55197-8) [21],[22]
+2010 : Gastronomie, petite philosophie du plaisir et du goût, collection Réflexions (im)pertinentes, Éditions Bréal  (ISBN 978-2-749-50994-5) (Épuisé)
+2010 : Clamecy – Événements fêtes et vie quotidienne, collection Mémoire en images", Éditions Alan Sutton  (ISBN 9782813802484) .
+2011 : Gastronomie-Gastrosophie-Gastronomisme, Éditions l'Harmattan, collection Questions contemporaines  (ISBN 978-2-296-55197-8) ,
 2011 : Un Ministère de la gastronomie ! Pourquoi pas ?, Éditions l'Harmattan, collection Questions contemporaines  (ISBN 978-2-735-22068-7)
 2012 : Manifeste du savoir-manger - Pour que nos enfants sachent se nourrir, Éditions Praelego  (ISBN 978-2-8131-0183-9) (Épuisé)
 2012 : Suis-je ce que je mange ? Le Temps qu'il fait (éditions), collection Littérature  (ISBN 978-2-868-53588-7) (Épuisé)
 2012 : La gastronomie autrefois, Éditions Sud Ouest  (ISBN 978-2817702292)
-2012 : Une cantine peut-elle être pédagogique ? Éditions l'Harmattan  (ISBN 978-2-2969-6419-8) [23]
+2012 : Une cantine peut-elle être pédagogique ? Éditions l'Harmattan  (ISBN 978-2-2969-6419-8) 
 2012 : L'Aide alimentaire : colis de vivres et repas philanthropiques - Focus sur la Gigouillette, au profit des Restos du Cœur, L'Harmattan, collection travaux historiques (dir. Denis Rolland)  (ISBN 978-2-296-96776-2)
 2014 : Hérédités alimentaires et identité gastronomique, L'Harmattan  (ISBN 978-2-343-02096-9)
 2015 : (dir.) Des fromages et des hommes : Ethnographie pratique, culturelle et sociale du fromage, L’Harmattan  (ISBN 978-2-343-04925-0)
@@ -564,11 +618,11 @@
 2016 : Bien-Manger et Manger Bon : Discours et transmission, L’Harmattan  (ISBN 978-2-343-09109-9)
 2017 : (co-dir.avec Anne Parizot) Écrits et Discours culinaires : Quand les mots se mettent à table, L’Harmattan  (ISBN 978-2-343-09718-3)
 2017 : (dir.) Les gestes culinaires : Mise en scène de savoir-faire, L’Harmattan   (ISBN 978-2-343-11085-1)
-2017 : (co-dir.avec Thibaut de Saint Pol) [24] Les enjeux sociaux des cuisines du futur et alimentations de demain, série Cuisine du futur et alimentation de demain, L’Harmattan  (ISBN 978-2-343-13465-9)
+2017 : (co-dir.avec Thibaut de Saint Pol)  Les enjeux sociaux des cuisines du futur et alimentations de demain, série Cuisine du futur et alimentation de demain, L’Harmattan  (ISBN 978-2-343-13465-9)
 2018 : Philosophie &amp; Alimentation : la conscience de bien manger, collection Au-delà des apparences, Ovadia  (ISBN 978-2363922618)
 2018 : (codir. avec Pascal Taranto) Futurophagie : Penser la cuisine de demain, série Cuisine du futur et alimentation de demain, L'Harmattan  (ISBN 978-2343147079)
-2018 : (dir.) La cuisine a-t-elle un sexe ? Femmes - Hommes, mode d'emploi du genre en cuisine, L'Harmattan, 2018  (ISBN 978-2343158686)[25]
-2020 : (codir. avec Sihem Debbabi-Missaoui), La cuisine du Maghreb, n’est-elle qu’une simple histoire de couscous ?[26],[27], L’Harmattan, coll. Questions alimentaires et gastronomiques  (ISBN 978-2343195476)
+2018 : (dir.) La cuisine a-t-elle un sexe ? Femmes - Hommes, mode d'emploi du genre en cuisine, L'Harmattan, 2018  (ISBN 978-2343158686)
+2020 : (codir. avec Sihem Debbabi-Missaoui), La cuisine du Maghreb, n’est-elle qu’une simple histoire de couscous ? L’Harmattan, coll. Questions alimentaires et gastronomiques  (ISBN 978-2343195476)
 2020 : (codir. avec Philomène Bayet-Robert,), Le marketing culinaire et alimentaire face aux défis du XXIe siècle, L’Harmattan, série Cuisine du futur et alimentation de demain  (ISBN 978-2343191577)
 2020 : (dir.) Identités alimentaires et héritages gastronomiques,  Paris, L’Harmattan, coll. Questions alimentaires et gastronomiques  (ISBN 978-2343222660)
 2020 : (codir. avec S.Sonneville), Cuisine fantastique et alimentation de fiction, L’Harmattan, série Cuisine du futur et alimentation de demain  (ISBN 978-2343219417)
@@ -578,38 +632,146 @@
 2022 : (dir.) Découvrir le vin par les sens, L’Harmattan, coll. Questions alimentaires et gastronomiques  (ISBN 978-2140278419)
 2023 : (dir.) A la recherche de l’Orgasme gastronomique, L’Harmattan, coll. Questions alimentaires et gastronomiques  (ISBN 978-2-336-41206-1)
 2024 : Opus culinaruim : petite philosophie de la gastronomie, Éditions Bréal-Groupe Studyrama, 2024,  (ISBN 978-2749556802)
-Traités et Dictionnaires
-2008 :  Chronologie historique de la Gastronomie et de l'Alimentation , Éditions Du Temps  (ISBN 978-2-84274-432-8)[28],[29],[30],[31] (Épuisé)
-2011 : Le petit dictionnaire énervé de la gastronomie[32], Éditions de l'opportun  (ISBN 978-2-360-75048-1) (Épuisé)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traités et Dictionnaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2008 :  Chronologie historique de la Gastronomie et de l'Alimentation , Éditions Du Temps  (ISBN 978-2-84274-432-8) (Épuisé)
+2011 : Le petit dictionnaire énervé de la gastronomie, Éditions de l'opportun  (ISBN 978-2-360-75048-1) (Épuisé)
 2012 : Anthologie littéraire de la gastronomie à la Belle époque Éditions L&amp;C
 2013 : Histoire divertissante et curieuse de la gastronomie, Éditions Grancher  (ISBN 978-2733912614)
-2012 : Traité de la Gastronomie : Patrimoine et Culture, Éditions Sang de la Terre [33],  (ISBN 978-28698-5280-8)[34]
+2012 : Traité de la Gastronomie : Patrimoine et Culture, Éditions Sang de la Terre ,  (ISBN 978-28698-5280-8)
 2013 : Traité du vin en France : Traditions et Terroir, Éditions Sang de la Terre  (ISBN 978-2-869-85310-2)
 2014 : Traité du fromage en France : Caséologie, affinage et authenticité, Éditions Sang de la Terre  (ISBN 978-2869853225)
 2015 : Le lexique culinaire Ferrandi : tout le vocabulaire de la cuisine et de la pâtisserie expliqué en 1.500 définitions, Éditions Hachette  (ISBN 978-2011775993).
-2017 : traduction - version coréenne, traduite par Hyun Jeong Kang, collection Macaron Éditions Esoope, Séoul [35].
-2015 : Dictionnaire du Bien Manger et des Modèles Culinaires, collection "les dictionnaires", Éditions Honoré Champion  (ISBN 978-2745330581) [36],[37],[38]
+2017 : traduction - version coréenne, traduite par Hyun Jeong Kang, collection Macaron Éditions Esoope, Séoul .
+2015 : Dictionnaire du Bien Manger et des Modèles Culinaires, collection "les dictionnaires", Éditions Honoré Champion  (ISBN 978-2745330581) 
 2017 : Les classements des vins en France : classifications, distinctions, labellisations, L’Harmattan  (ISBN 978-2-343-10823-0).
 2018 : Petit lexique pour comprendre la qualité alimentaire et les labels, Erick Bonnier  (ISBN 978-2367601373)
 2020 : (co-dir avec Jean-Louis Yengué) Terroir viticole : espace et figure de qualité, collection Tables des Hommes, Presses universitaires François-Rabelais, université de Tours  (ISBN 978-2869067318)
 2020 : (dir.), Terminologies gastronomiques et œnologiques : Aspects patrimoniaux et culturels, L’Harmattan, coll. Questions alimentaires et gastronomiques  (ISBN 978-2343196107)
 2023 : La caricature de la gastronomie : XVIIIe, XIXe, XXe siècles, les siècles de la comédie gourmande et de l’incarnation du comestible ridicule, L’Harmattan, 2023   (ISBN 978-2-14-049057-6)
-Poésie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2010 : Drôles de drames, collectif, Éditions Codexlibris, 2010.  (ISBN 978-2916805054)
 2012 : Poètes du vin, Poètes divins, préface de Jean-Robert Pitte, collection Écriture, Éditions Archipel  (ISBN 978-2-35905-056-1)
 2012 : Permission de servir Éditions L&amp;C
-2008 : Les poètes de la bonne chère, Anthologie de poésie gastronomique, collection Petite Vermillon, Éditions de la Table ronde (groupe Gallimard), 2008.  (ISBN 2710330733)  [39],[40]
-2008 : adaptation audio, Les poètes de la bonne chère, DAISY (livre audio), Bibliothèque Numérique Francophone AccessibleB (ISBN 9782710330738) [41]
-2017 : réédition Les poètes de la bonne chère : nouvelle édition, collection Petite Vermillon, Éditions de la Table ronde (groupe Gallimard), 2017.  (ISBN 978-2710385547)[42]
-Livres-jeu
-2007 : Le Petit Quiz du vin, Éditions Dunod  (ISBN 2100508733) [43]
+2008 : Les poètes de la bonne chère, Anthologie de poésie gastronomique, collection Petite Vermillon, Éditions de la Table ronde (groupe Gallimard), 2008.  (ISBN 2710330733)  ,
+2008 : adaptation audio, Les poètes de la bonne chère, DAISY (livre audio), Bibliothèque Numérique Francophone AccessibleB (ISBN 9782710330738) 
+2017 : réédition Les poètes de la bonne chère : nouvelle édition, collection Petite Vermillon, Éditions de la Table ronde (groupe Gallimard), 2017.  (ISBN 978-2710385547)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres-jeu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2007 : Le Petit Quiz du vin, Éditions Dunod  (ISBN 2100508733) 
 2010 : réédition Le nouveau petit quiz du vin, Éditions Dunod  (ISBN 978-2100540334)
 2009 : traduction – version japonaise, éditions Sakuhin Sha (Tokyo)  (ISBN 978-4861822223)
 2007 : Le Grand QCM du vin, Éditions Dunod  (ISBN 2100511467)
 2009 : traduction – version japonaise, éditions Sakuhin Sha (Tokyo)  (ISBN 978-4861822261) (OCLC 676481906)
 2008 : Le Grand Quiz du fromage, Éditions Lanore Delagrave, (Groupe Flammarion)  (ISBN 2862684058)
 2008 : Le Grand Quiz de la bière, Éditions Lanore Delagrave, (Groupe Flammarion)  (ISBN 2862684066)
-2009 : QG 500, le quiz de la gastronomie –Testez votre quotient culinaire, Éditions Menu Fretin  (ISBN 978 2917 008072)[44]
+2009 : QG 500, le quiz de la gastronomie –Testez votre quotient culinaire, Éditions Menu Fretin  (ISBN 978 2917 008072)
 2011 : La Touraine en questions, coauteur avec Patrick Prieur, Éditions Alan Sutton  (ISBN 978-2813803603)
 2011 : Pommard ou Pomerol ?, Éditions Dunod  (ISBN 978-4861822261)
 2011 : Montmartre en questions - Patrimoine et gastronomie, coauteur avec Loïc Bienassis, Éditions Alan Sutton  (ISBN 978-2813804969)
@@ -618,19 +780,127 @@
 2014 : Almaniak Tout sur le vin en 365 jours 2015, Éditions 365  (ISBN 978-2351555835)
 2019 : réédition 2020  (ISBN 978-2377611669)
 2024 : réédition Premium 2025
-Guides pratiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Guides pratiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2008 : Les critiques aux fourneaux, au profit des Restos du Cœur, collectif, Éditions 4 chemins  (ISBN 2847841830)
 2008 : Œnologie et crus des vins, Éditions Jérôme Villette  (ISBN 978-2-86547-080-8)
-2010 : adaptation audio Œnologie &amp; crus des vins, (durée 12h20) Éditions Groupement des Intellectuels Aveugles ou Amblyopes (GIAA) – DAISY (livre audio)[45]
+2010 : adaptation audio Œnologie &amp; crus des vins, (durée 12h20) Éditions Groupement des Intellectuels Aveugles ou Amblyopes (GIAA) – DAISY (livre audio)
 2012 : A table avec Jules Verne et Philéas Fogg - tour du monde en 80 recettes, éditions Agnès Vienot  (ISBN 978-2-3532-6151-2) (épuisé)
 2017 : Choisir son vin ! Super facile !, Éditions Solar  (ISBN 978-2263152238)
-Scénarios
-1997 : Auteur d'une adaptation théâtrale Bacchus pour la compagnie "Les Planches de Sèvres"[46].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1997 : Auteur d'une adaptation théâtrale Bacchus pour la compagnie "Les Planches de Sèvres".
 2000 : Projet de création d’un jeu télévisé pour Gourmet TV
 2005 :  Auteur de scenario pour projet d'émission, avec Goldenproduction et France 3 Régions
-2011 : Auteur de textes et questions d’épreuves pour la Saison 2 de MasterChef sur TF1[47]
-Ouvrages scolaires
-2006 : Aide-mémoire de la gastronomie en France, Éditions BPI  (ISBN 978-2857084235) [48]
+2011 : Auteur de textes et questions d’épreuves pour la Saison 2 de MasterChef sur TF1
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ouvrages scolaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2006 : Aide-mémoire de la gastronomie en France, Éditions BPI  (ISBN 978-2857084235) 
 2008 : Technologie de service version élève, Éditions Bertrand Lacoste  (ISBN 9782735220670)
 2008 : Technologie de service version enseignant, Éditions Bertrand Lacoste  (ISBN 9782735220687)
 2008 : Technologie culinaire version élève, Éditions Bertrand Lacoste  (ISBN 9782735220731) (épuisé)
@@ -638,12 +908,47 @@
 2008 : Le kit pédagogique du professeur professionnel, éditions Eyrolles  (ISBN 978-2-212-54163-2)
 2017 : (dir.) Enseigner l'alimentation, un projet de société : Les Enseignements pratiques interdisciplinaires, L’Harmattan  (ISBN 978-2343121475)
 2022 : Transmettre la connaissance du vin à l’avenir, L’Harmattan   (ISBN 978-2140334276)
-Bande-dessinée
-2024 : L’histoire de la gastronomie en Bandes dessinées, avec Bernard Deyries, Mike et Daisy Sadler, Delcourt (maison d'édition)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bande-dessinée</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024 : L’histoire de la gastronomie en Bandes dessinées, avec Bernard Deyries, Mike et Daisy Sadler, Delcourt (maison d'édition)
 Parties d'ouvrages
 Parties d'ouvrages
 Chapitres et articles scientifiques
-"L’enseignement des vins en école hôtelière", dans Les Territoires du vin, portée par la Chaire UNESCO « Culture et Traditions du Vin », Maison des sciences de l'homme de Dijon, 2012[49]
+"L’enseignement des vins en école hôtelière", dans Les Territoires du vin, portée par la Chaire UNESCO « Culture et Traditions du Vin », Maison des sciences de l'homme de Dijon, 2012
 Collectif, Catalogue de l'exposition Festins de la Renaissance, cuisine et trésors de la table du Château de Blois, Somogy éditions, 2012.
 Notice "Maurice Brulfer", dans Le Savoir Fer - Glossaire des Haut Fourneaux, (dir. Jacques Corbion et Jean-Marie Moine), 5e éd., association Le savoir…fer, 2012
 "L'enseignement des produits laitiers en école hôtelière : une approche plurielle", dans ouvrage Les reconfigurations récentes des filières laitières en France et en Europe (dir. Daniel Ricard), collection CERAMAC, Presses universitaires Blaise Pascal, 2013
@@ -659,7 +964,7 @@
 "La place du culinaire dans le monde de l’écrit : entre excellence et humanisme" dans Écrits et discours culinaires : Quand les mots se mettent à table, L’Harmattan, 2016
 "Le paradigme du bien manger : du pragmatique à l’identitaire" dans Revue Sciences, Langage et Communication vol. 1, no 1, École Supérieure de Technologie de  Meknès (ESTM), Maroc, 2016
 (co-écrit avec A-H.Marinescu), "Wine Tasting Discourse: Traditional Knowledge, and Practice" dans Journal of Social Sciences, Science Publications, Open Journal of Social Sciences, vol. 4 (no 5), p. 124-134, Wuhan City, Hubei, Chine, 2016.
-"Paroles de chef : modèles communicationnels d’une organisation professionnelle", dans Revue de la Société française des sciences de l’information et de la communication, no 9, 2016[50].
+"Paroles de chef : modèles communicationnels d’une organisation professionnelle", dans Revue de la Société française des sciences de l’information et de la communication, no 9, 2016.
 "La représentation du bon produit et sa transmission", dans (dir. C. Hugol-Gential, J.-J. Boutaud, S.Dufour) La gastronomie au cœur de la Cité, Éditions universitaires de Dijon, 2016  (ISBN 978-2364411982).
 "La bonne cuisine avec ses bons mots", dans (dir. F. Argod-Dutard) Le français se met à table, Presses Universitaires de Rennes, 2017,  (ISBN 978-2753555396).
 "Pierre-François de La Varenne", dans (dir. Danièle Sallenave) Recueil des Commémorations nationales 2018, Ministère de la Culture, 2017.  (ISBN 978-2757705728).
@@ -682,7 +987,7 @@
 « L’alimentation, un art discursif », in (dir. René Rampnoux) Manuel Concours Institut d'études politiques 2023 thème Alimentation, Ellipses
 « La symbolique culinaire française », in (dir. René Rampnoux) Manuel Concours Institut d'études politiques 2023 thème Alimentation, Ellipses
 « La qualité alimentaire », in (dir. René Rampnoux) Manuel Concours Institut d'études politiques 2023 thème Alimentation, Ellipses
-« De la critique littéraire à l’écriture gastronomique : Terminologies et phraséologies alimentaires et gastronomiques au service des pratiques communicationnelles », in (dir. Anne Chamayou et Guilhem Armand) Dossier Saveurs de la littérature, Revue TrOPICS, Université de La Réunion[51]
+« De la critique littéraire à l’écriture gastronomique : Terminologies et phraséologies alimentaires et gastronomiques au service des pratiques communicationnelles », in (dir. Anne Chamayou et Guilhem Armand) Dossier Saveurs de la littérature, Revue TrOPICS, Université de La Réunion
 « La silhouette du corps prend forme par le ventre », in (dir. René Rampnoux) Manuel Concours Institut d'études politiques 2024 thème Le corps, Ellipses
 « Le corps, outil de désirs et de stimulations », in (dir. René Rampnoux) Manuel Concours Institut d'études politiques 2024 thème Le corps, Ellipses
 Chapitres et articles de vulgarisation
@@ -695,33 +1000,68 @@
 "L’influence des réseaux sociaux dans le monde de la gastronomie" et "Il était une fois la cuisine moléculaire", dans Mook Feu vif : la gastronomie inspirée, Hachette pratique, 2017
 "Préface", dans La passivité de la motivation des vocabulaires gastronomiques français (Philip Igho Agadagba), L’Harmattan, 2017
 "Petite histoire de la Crêpe Suzette", dans Contrepoints, 4 mars 2018
-"La bonne cuisine deviendrait-elle une forme de soft power individuel ?", dans Contrepoints, 18 février 2018[52]
-"L’existentialisme du Maitre d’hôtel de demain", dans "Un œil en Salle", 2021 [53]
-"Communication &amp; Alimentation", in (dir. L. Blagojevic) La 5e transition alimentaire, focus restauration, food, distribution, Innovore, 2021 [54]
+"La bonne cuisine deviendrait-elle une forme de soft power individuel ?", dans Contrepoints, 18 février 2018
+"L’existentialisme du Maitre d’hôtel de demain", dans "Un œil en Salle", 2021 
+"Communication &amp; Alimentation", in (dir. L. Blagojevic) La 5e transition alimentaire, focus restauration, food, distribution, Innovore, 2021 
 « La dégustation savante", in "Vin ligérien: Témoignage sur Jacques Puisais"
 "Coupable de se nourrir », in Magazine BON n°1 2021
-"Bien manger coûte-t-il plus cher ?", in Stripfood 2021[55].
-"A la santé du peuple !", in Stripfood 2021[56].
-"La table des philosophes", in Stripfood 2021 [57]
-"Les enfants, à table ! : leçons alimentaires en confinement", The Conversation 2020 [58]
-"Redonner du moral par un moment à table solidaire", in Alimentation générale 13 mai 2020 [59]
-"À l’heure de l’enseignement de la crêpe Suzette virtuelle et à distance", in Un œil en salle, 9 mai 2020 [60]
-"Repas et verres partagés et confinés : une nouvelle forme de convivialité altruiste ?", in Stripfood  13 mai 2020 [61]
-"L’individualisme au cœur des effets de l’actualité", in Stripfood 2020[62].
-"Lecture de l’évolutionnisme alimentaire", in Stripfood 2020[63].
-"La place des chefs sur les réseaux sociaux", in Stripfood 2020[64].
-"Dégustation de vin en confinement : une tentative de préservation des rites de convivialité", The Conversation 2020 [65]
-"La petite cuisine des formes conviviales en confinement", The Conversation 2020 [66]
-"Pourquoi le ‘’terroir’’ viticole est à la fois invisible et omniprésent", The Conversation rubrique « culture »  2020[67].
-"Communication &amp; Alimentation", in (dir. L. Blagojevic) La 5e transition alimentaire, focus restauration, food, distribution, Innovore, 2021 [68].
+"Bien manger coûte-t-il plus cher ?", in Stripfood 2021.
+"A la santé du peuple !", in Stripfood 2021.
+"La table des philosophes", in Stripfood 2021 
+"Les enfants, à table ! : leçons alimentaires en confinement", The Conversation 2020 
+"Redonner du moral par un moment à table solidaire", in Alimentation générale 13 mai 2020 
+"À l’heure de l’enseignement de la crêpe Suzette virtuelle et à distance", in Un œil en salle, 9 mai 2020 
+"Repas et verres partagés et confinés : une nouvelle forme de convivialité altruiste ?", in Stripfood  13 mai 2020 
+"L’individualisme au cœur des effets de l’actualité", in Stripfood 2020.
+"Lecture de l’évolutionnisme alimentaire", in Stripfood 2020.
+"La place des chefs sur les réseaux sociaux", in Stripfood 2020.
+"Dégustation de vin en confinement : une tentative de préservation des rites de convivialité", The Conversation 2020 
+"La petite cuisine des formes conviviales en confinement", The Conversation 2020 
+"Pourquoi le ‘’terroir’’ viticole est à la fois invisible et omniprésent", The Conversation rubrique « culture »  2020.
+"Communication &amp; Alimentation", in (dir. L. Blagojevic) La 5e transition alimentaire, focus restauration, food, distribution, Innovore, 2021 .
 « La dégustation savante », in Vin ligérien: Témoignage sur Jacques Puisais, 2021
 « Coupable de se nourrir », in Magazine BON n°1, 2021
-« Bien manger coûte-t-il plus cher ? » , in Stripfood. 2021  [55].
-« Coupable de se nourrir », in Stripfood [69].
-« Régimes passionnels de l’excès», in Stripfood [70].
-« L’existentialisme du Maitre d’hôtel de demain », in Un œil en salle [53].
-Collaborations à organes d'éditions
-Responsable des publications  Gusto (2008-2009) et Les cahiers des Rencontres François Rabelais;
+« Bien manger coûte-t-il plus cher ? » , in Stripfood. 2021  .
+« Coupable de se nourrir », in Stripfood .
+« Régimes passionnels de l’excès», in Stripfood .
+« L’existentialisme du Maitre d’hôtel de demain », in Un œil en salle .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Collaborations à organes d'éditions</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Responsable des publications  Gusto (2008-2009) et Les cahiers des Rencontres François Rabelais;
 Membre comité éditorial des Presses universitaires François Rabelais et des Cahiers de la gastronomie (Prix littéraire Gastronomie-culture 2010);
 Membre du comité scientifique de Food geography (2009-2011);
 Collaborateur à Food &amp; History, Revue scientifique européenne, Éditions Brepols;
@@ -729,48 +1069,50 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Kilien_Stengel</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Médias</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kilien Stengel intervient régulièrement dans les médias radios entre autres avec Radio France[71], France bleu[72],[73], RCF[74], Radio Campus France[75], et en télévision entre autres :
-Depuis 1997 :  De nombreuses conférences sur la gastronomie [76]
-2023 : Expert pour l'émission Succulent sur France 3, [77]
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kilien Stengel intervient régulièrement dans les médias radios entre autres avec Radio France, France bleu RCF, Radio Campus France, et en télévision entre autres :
+Depuis 1997 :  De nombreuses conférences sur la gastronomie 
+2023 : Expert pour l'émission Succulent sur France 3, 
 2019 : CoProducteur du court-métrage Cellule familiale, réalisé par Vladimir Lifschutz et Julien Reneaut
 2019 : Invité à TV des chefs
-2019 : Expert pour l'émission Les Bonnes choses sur France culture, présenté par Caroline Broué [78]
+2019 : Expert pour l'émission Les Bonnes choses sur France culture, présenté par Caroline Broué 
 2019 : Expert pour l'émission Très très bon sur Paris Première, présenté par François-Régis Gaudry
-2018 : Expert pour l'émission Un jour, un destin : Serge Gainsbourg sur France 2 [79]
-2014 : Expert pour l'émission De l'art et du cochon, aux côtés de Georges Blanc sur Arte [80]
+2018 : Expert pour l'émission Un jour, un destin : Serge Gainsbourg sur France 2 
+2014 : Expert pour l'émission De l'art et du cochon, aux côtés de Georges Blanc sur Arte 
 2013 : Chroniqueur pour l'émission Comment ça va bien !, aux côtés de Benoît Chaigneau sur France 2
-2012 : Expert pour l'émission Les fromages, quel fromage !- Le Blogueur sur Arte [81]
+2012 : Expert pour l'émission Les fromages, quel fromage !- Le Blogueur sur Arte 
 2012 : Expert dans les émissions Le Meilleur pâtissier saison 1, sur M6
-2011- 2014 : Chroniqueur pour les émissions Tout sur un plateau sur TV Tours [82]
-2011-2012 : Animateur d'une vingtaine de Minute Facile pour 100 % Mag sur M6 [83]
-2011: Invité principal de Ma vie est une aventure présenté par Stéphanie Loire, janvier 2011, sur France 3 Limousin Poitou-Charentes [84],[83]
-2010 : Expert dans le documentaire La Revanche des pâtissiers de Philippe Boé, sur France 5 [85]
+2011- 2014 : Chroniqueur pour les émissions Tout sur un plateau sur TV Tours 
+2011-2012 : Animateur d'une vingtaine de Minute Facile pour 100 % Mag sur M6 
+2011: Invité principal de Ma vie est une aventure présenté par Stéphanie Loire, janvier 2011, sur France 3 Limousin Poitou-Charentes ,
+2010 : Expert dans le documentaire La Revanche des pâtissiers de Philippe Boé, sur France 5 
 2009 : Animateur d'une rubrique quotidienne "Culture et histoire gastronomique" sur France Bleu
 2008 : Invité de Rencontre du 19-20, du 19 octobre 2008, sur France 3 Paris Île-de-France Centre
 2008 : Invité de La Bonne étape, du 7 octobre 2008, sur TV Tours
@@ -781,61 +1123,103 @@
 1996 à 2000 : Comédien au théâtre de Sèvres Espace Loisirs dans La Salle à manger de A. R. Gurney, Un bain de ménage de Georges Feydeau, Les Femmes savantes de Molière.
 1994 : Enregistrement et diffusion d'une chanson
 1993 : Figurant dans une publicité pour Relais &amp; Châteaux et American Express
-Et il collabore dans la presse, entre autres avec Les Cahiers de la gastronomie, Contrepoints[86], The Conversation (média)[87], Agoravox[88], Stripfood[89].
+Et il collabore dans la presse, entre autres avec Les Cahiers de la gastronomie, Contrepoints, The Conversation (média), Agoravox, Stripfood.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Kilien_Stengel</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix littéraires
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Prix littéraires</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2023 : Gourmand World Cookbook Awards , catégorie "Wine Education" pour Transmettre la connaissance du vin à l’avenir
 2022 : Gourmand World Cookbook Awards , catégorie "Future food 21st century" pour La cuisine de demain vue par 50 étoiles d’aujourd’hui
 2021 : Gourmand World Cookbook Awards, catégorie "Food Heritage &amp; UNESCO" pour Identités alimentaires et héritages gastronomiques
-2020 : Gourmand World Cookbook Awards, catégorie "Afrique du nord" pour La Cuisine du Maghreb n’est elle qu’une simple histoire de couscous ? [90].
-2020 : Gourmand World Cookbook Awards, catégorie "Pour professionnel" pour Le marketing culinaire et alimentaire face aux défis du XXIe siècle[91].
+2020 : Gourmand World Cookbook Awards, catégorie "Afrique du nord" pour La Cuisine du Maghreb n’est elle qu’une simple histoire de couscous ? .
+2020 : Gourmand World Cookbook Awards, catégorie "Pour professionnel" pour Le marketing culinaire et alimentaire face aux défis du XXIe siècle.
 2018 : Concours international littéraire Prix Arts et Lettres de France, catégorie Essai.
 2018 : Gourmand World Cookbook Awards, catégorie Host country pour l'ouvrage collectif Gastronomie au cœur de la Cité (dirigé par J-J. Boutaud, C. Hugol-Gential, S. Dufour)(Editions universitaires de Dijon)
 2018 : Gourmand World Cookbook Awards, catégorie Livres pour professionnels pour Les gestes culinaires : Mise en scène de savoir-faire(ed. L'Harmattan)
-2017 : Gourmand World Cookbook Awards, catégorie Health and Nutrition pour Bien-Manger et Manger Bon : Discours et transmission (ed. L'Harmattan) [92].
-2015 : Gourmand World Cookbook Awards, catégorie Best French Cuisine Book pour Lexique culinaire Ferrandi (ed. Hachette) [93].
+2017 : Gourmand World Cookbook Awards, catégorie Health and Nutrition pour Bien-Manger et Manger Bon : Discours et transmission (ed. L'Harmattan) .
+2015 : Gourmand World Cookbook Awards, catégorie Best French Cuisine Book pour Lexique culinaire Ferrandi (ed. Hachette) .
 2015 : Gourmand World Cookbook Awards, catégorie Best Cheese – Milk  Book pour Des fromages et des hommes (ed. L'Harmattan)
-2014 : Prix Montesquieu, catégorie Littérature pour Poètes du vin Poètes divins [94].
+2014 : Prix Montesquieu, catégorie Littérature pour Poètes du vin Poètes divins .
 2014 : Nomination au prix Jean Carmet, salon du livre et du vin de Saumur, pour Traité du vin (Sang de la terre)
-2013 : Gourmand World Cookbook Awards, catégorie Littérature gastronomique pour Histoire divertissante et curieuse de la Gastronomie (ed. Grancher) [95].
-2013 : Grand prix Académie nationale de cuisine, catégorie Cuisine du monde pour A table avec Jules Verne - Le tour du monde de Phileas Fogg en 80 recettes (ed. Vienot)[96].
-2012 : Gourmand World Cookbook Awards, catégorie Cuisine Française pour Le Traité de la gastronomie française (ed. Sang de la terre)[97],[98]
-2010 : Gourmand World Cookbook Awards pour Le Grand Quiz de la bière (éd. Delagrave)[99]
-2009 : Gourmand World Cookbook Awards pour l'ouvrage Les critiques aux fourneaux (ed.Quatre Chemins), avec l'Association professionnelle des chroniqueurs et informateurs de la gastronomie et du vin[99]
-2009 : Gourmand World Cookbook Awards pour Chronologie de la gastronomie et de l'alimentation (ed. du temps)[99]
-2008 : Prix spécial du jury de l'Académie nationale de cuisine pour Œnologie et crus des vins[100],[101],
-2008 : Mention spéciale du jury du Salon international du livre gourmand, à Périgueux, pour l'ouvrage collectif Les critiques aux Fourneaux (éd. Quatre Chemins) [102].
-Distinctions professionnelles et corporatives
-2020 : Classé dans les 60 comptes food à suivre sur twitter[103] par le site Stripfood [104]
+2013 : Gourmand World Cookbook Awards, catégorie Littérature gastronomique pour Histoire divertissante et curieuse de la Gastronomie (ed. Grancher) .
+2013 : Grand prix Académie nationale de cuisine, catégorie Cuisine du monde pour A table avec Jules Verne - Le tour du monde de Phileas Fogg en 80 recettes (ed. Vienot).
+2012 : Gourmand World Cookbook Awards, catégorie Cuisine Française pour Le Traité de la gastronomie française (ed. Sang de la terre),
+2010 : Gourmand World Cookbook Awards pour Le Grand Quiz de la bière (éd. Delagrave)
+2009 : Gourmand World Cookbook Awards pour l'ouvrage Les critiques aux fourneaux (ed.Quatre Chemins), avec l'Association professionnelle des chroniqueurs et informateurs de la gastronomie et du vin
+2009 : Gourmand World Cookbook Awards pour Chronologie de la gastronomie et de l'alimentation (ed. du temps)
+2008 : Prix spécial du jury de l'Académie nationale de cuisine pour Œnologie et crus des vins
+2008 : Mention spéciale du jury du Salon international du livre gourmand, à Périgueux, pour l'ouvrage collectif Les critiques aux Fourneaux (éd. Quatre Chemins) .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Distinctions professionnelles et corporatives</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2020 : Classé dans les 60 comptes food à suivre sur twitter par le site Stripfood 
 2018 : Nomination au classement "Food's Who - Les 500 acteurs les plus influents de la Food en France", site Atabula
 2017 : Nomination au classement des "35 plus belles reconversions de la food en France", site Atabula
 2012 : Mérite culinaire Prosper Montagné
@@ -846,8 +1230,43 @@
 Membre Société scientifique et artistique
 Académicien Académie nationale de cuisine
 Membre de l'Association des disciples d'Escoffier international
-Décorations
- Chevalier de l'ordre du Mérite agricole par arrêté du 15 juillet 2015 du ministre de l'agriculture et l'agroalimentaire Stéphane Le Foll, remis par la députée européenne Angélique Delahaye
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kilien_Stengel</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre du Mérite agricole par arrêté du 15 juillet 2015 du ministre de l'agriculture et l'agroalimentaire Stéphane Le Foll, remis par la députée européenne Angélique Delahaye
  Officier de l'ordre du Mérite agricole par arrêté du 31 janvier 2021 du ministre de l'agriculture et l'alimentation Julien Denormandie</t>
         </is>
       </c>
